--- a/tests/data/new_v1.xlsx
+++ b/tests/data/new_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucierodriguez/Documents/Olinkdb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E82F00A7-4363-4749-A1CC-236CA0A3C939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7F3F5F-9289-A445-BC43-29CD3655D894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3880" yWindow="1540" windowWidth="24000" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="286">
   <si>
     <t>NPX linear</t>
   </si>
@@ -882,9 +882,6 @@
     <t>project</t>
   </si>
   <si>
-    <t>LOD</t>
-  </si>
-  <si>
     <t>baby</t>
   </si>
 </sst>
@@ -1270,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CY151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133:XFD133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1875,7 +1872,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR2" s="2" t="s">
         <v>222</v>
@@ -2186,7 +2183,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ3" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR3" s="2" t="s">
         <v>222</v>
@@ -2497,7 +2494,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ4" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR4" s="2" t="s">
         <v>222</v>
@@ -2808,7 +2805,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ5" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR5" s="2" t="s">
         <v>222</v>
@@ -3119,7 +3116,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ6" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR6" s="2" t="s">
         <v>222</v>
@@ -3430,7 +3427,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ7" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR7" s="2" t="s">
         <v>222</v>
@@ -3741,7 +3738,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ8" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR8" s="2" t="s">
         <v>222</v>
@@ -4052,7 +4049,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ9" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR9" s="2" t="s">
         <v>222</v>
@@ -4363,7 +4360,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ10" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR10" s="2" t="s">
         <v>222</v>
@@ -4674,7 +4671,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ11" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR11" s="2" t="s">
         <v>222</v>
@@ -4985,7 +4982,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ12" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR12" s="2" t="s">
         <v>222</v>
@@ -5296,7 +5293,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ13" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR13" s="2" t="s">
         <v>222</v>
@@ -5607,7 +5604,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ14" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR14" s="2" t="s">
         <v>222</v>
@@ -5918,7 +5915,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ15" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR15" s="2" t="s">
         <v>222</v>
@@ -6229,7 +6226,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ16" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR16" s="2" t="s">
         <v>222</v>
@@ -6540,7 +6537,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ17" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR17" s="2" t="s">
         <v>222</v>
@@ -6851,7 +6848,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ18" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR18" s="2" t="s">
         <v>222</v>
@@ -7162,7 +7159,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ19" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR19" s="2" t="s">
         <v>222</v>
@@ -7473,7 +7470,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ20" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR20" s="2" t="s">
         <v>222</v>
@@ -7784,7 +7781,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ21" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR21" s="2" t="s">
         <v>222</v>
@@ -8095,7 +8092,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ22" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR22" s="2" t="s">
         <v>222</v>
@@ -8406,7 +8403,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ23" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR23" s="2" t="s">
         <v>222</v>
@@ -8717,7 +8714,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ24" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR24" s="2" t="s">
         <v>223</v>
@@ -9028,7 +9025,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ25" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR25" s="2" t="s">
         <v>223</v>
@@ -9339,7 +9336,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ26" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR26" s="2" t="s">
         <v>222</v>
@@ -9650,7 +9647,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ27" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR27" s="2" t="s">
         <v>222</v>
@@ -9961,7 +9958,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ28" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR28" s="2" t="s">
         <v>222</v>
@@ -10272,7 +10269,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ29" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR29" s="2" t="s">
         <v>222</v>
@@ -10583,7 +10580,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ30" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR30" s="2" t="s">
         <v>222</v>
@@ -10894,7 +10891,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ31" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR31" s="2" t="s">
         <v>222</v>
@@ -11205,7 +11202,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ32" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR32" s="2" t="s">
         <v>222</v>
@@ -11516,7 +11513,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ33" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR33" s="2" t="s">
         <v>222</v>
@@ -11827,7 +11824,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ34" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR34" s="2" t="s">
         <v>222</v>
@@ -12138,7 +12135,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ35" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR35" s="2" t="s">
         <v>222</v>
@@ -12449,7 +12446,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ36" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR36" s="2" t="s">
         <v>222</v>
@@ -12760,7 +12757,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ37" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR37" s="2" t="s">
         <v>222</v>
@@ -13071,7 +13068,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ38" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR38" s="2" t="s">
         <v>222</v>
@@ -13382,7 +13379,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ39" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR39" s="2" t="s">
         <v>222</v>
@@ -13693,7 +13690,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ40" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR40" s="2" t="s">
         <v>222</v>
@@ -14004,7 +14001,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ41" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR41" s="2" t="s">
         <v>222</v>
@@ -14315,7 +14312,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ42" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR42" s="2" t="s">
         <v>222</v>
@@ -14626,7 +14623,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ43" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR43" s="2" t="s">
         <v>222</v>
@@ -14937,7 +14934,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ44" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR44" s="2" t="s">
         <v>222</v>
@@ -15248,7 +15245,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ45" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR45" s="2" t="s">
         <v>222</v>
@@ -15559,7 +15556,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ46" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR46" s="2" t="s">
         <v>222</v>
@@ -15870,7 +15867,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ47" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR47" s="2" t="s">
         <v>222</v>
@@ -16181,7 +16178,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ48" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR48" s="2" t="s">
         <v>222</v>
@@ -16492,7 +16489,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ49" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR49" s="2" t="s">
         <v>222</v>
@@ -16803,7 +16800,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ50" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR50" s="2" t="s">
         <v>222</v>
@@ -17114,7 +17111,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ51" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR51" s="2" t="s">
         <v>222</v>
@@ -17425,7 +17422,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ52" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR52" s="2" t="s">
         <v>222</v>
@@ -17736,7 +17733,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ53" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR53" s="2" t="s">
         <v>222</v>
@@ -18047,7 +18044,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ54" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR54" s="2" t="s">
         <v>222</v>
@@ -18358,7 +18355,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ55" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR55" s="2" t="s">
         <v>222</v>
@@ -18669,7 +18666,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ56" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR56" s="2" t="s">
         <v>222</v>
@@ -18980,7 +18977,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ57" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR57" s="2" t="s">
         <v>222</v>
@@ -19291,7 +19288,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ58" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR58" s="2" t="s">
         <v>222</v>
@@ -19602,7 +19599,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ59" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR59" s="2" t="s">
         <v>222</v>
@@ -19913,7 +19910,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ60" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR60" s="2" t="s">
         <v>223</v>
@@ -20224,7 +20221,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ61" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR61" s="2" t="s">
         <v>222</v>
@@ -20535,7 +20532,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ62" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR62" s="2" t="s">
         <v>222</v>
@@ -20846,7 +20843,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ63" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR63" s="2" t="s">
         <v>222</v>
@@ -21157,7 +21154,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ64" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR64" s="2" t="s">
         <v>222</v>
@@ -21468,7 +21465,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ65" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR65" s="2" t="s">
         <v>222</v>
@@ -21779,7 +21776,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ66" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR66" s="2" t="s">
         <v>222</v>
@@ -22090,7 +22087,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ67" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR67" s="2" t="s">
         <v>222</v>
@@ -22401,7 +22398,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ68" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR68" s="2" t="s">
         <v>222</v>
@@ -22712,7 +22709,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ69" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR69" s="2" t="s">
         <v>222</v>
@@ -23023,7 +23020,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ70" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR70" s="2" t="s">
         <v>222</v>
@@ -23334,7 +23331,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ71" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR71" s="2" t="s">
         <v>222</v>
@@ -23645,7 +23642,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ72" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR72" s="2" t="s">
         <v>222</v>
@@ -23956,7 +23953,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ73" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR73" s="2" t="s">
         <v>222</v>
@@ -24267,7 +24264,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ74" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR74" s="2" t="s">
         <v>222</v>
@@ -24578,7 +24575,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ75" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR75" s="2" t="s">
         <v>222</v>
@@ -24889,7 +24886,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ76" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR76" s="2" t="s">
         <v>222</v>
@@ -25200,7 +25197,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ77" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR77" s="2" t="s">
         <v>222</v>
@@ -25511,7 +25508,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ78" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR78" s="2" t="s">
         <v>222</v>
@@ -25822,7 +25819,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ79" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR79" s="2" t="s">
         <v>222</v>
@@ -26133,7 +26130,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ80" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR80" s="2" t="s">
         <v>222</v>
@@ -26444,7 +26441,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ81" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR81" s="2" t="s">
         <v>222</v>
@@ -26755,7 +26752,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ82" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR82" s="2" t="s">
         <v>222</v>
@@ -27066,7 +27063,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ83" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR83" s="2" t="s">
         <v>222</v>
@@ -27377,7 +27374,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ84" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR84" s="2" t="s">
         <v>222</v>
@@ -27688,7 +27685,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ85" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR85" s="2" t="s">
         <v>222</v>
@@ -27999,7 +27996,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ86" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR86" s="2" t="s">
         <v>222</v>
@@ -28310,7 +28307,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ87" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR87" s="2" t="s">
         <v>222</v>
@@ -28621,7 +28618,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ88" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR88" s="2" t="s">
         <v>222</v>
@@ -28932,7 +28929,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ89" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR89" s="2" t="s">
         <v>222</v>
@@ -29243,7 +29240,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ90" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR90" s="2" t="s">
         <v>222</v>
@@ -29554,7 +29551,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ91" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR91" s="2" t="s">
         <v>222</v>
@@ -29865,7 +29862,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ92" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR92" s="2" t="s">
         <v>222</v>
@@ -30176,7 +30173,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ93" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR93" s="2" t="s">
         <v>222</v>
@@ -30487,7 +30484,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ94" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR94" s="2" t="s">
         <v>222</v>
@@ -30798,7 +30795,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ95" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR95" s="2" t="s">
         <v>222</v>
@@ -31109,7 +31106,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ96" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR96" s="2" t="s">
         <v>222</v>
@@ -31420,7 +31417,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ97" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR97" s="2" t="s">
         <v>222</v>
@@ -31731,7 +31728,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ98" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR98" s="2" t="s">
         <v>222</v>
@@ -32042,7 +32039,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ99" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR99" s="2" t="s">
         <v>223</v>
@@ -32353,7 +32350,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ100" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR100" s="2" t="s">
         <v>222</v>
@@ -32664,7 +32661,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ101" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR101" s="2" t="s">
         <v>222</v>
@@ -32975,7 +32972,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ102" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR102" s="2" t="s">
         <v>222</v>
@@ -33286,7 +33283,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ103" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR103" s="2" t="s">
         <v>222</v>
@@ -33597,7 +33594,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ104" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR104" s="2" t="s">
         <v>222</v>
@@ -33908,7 +33905,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ105" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR105" s="2" t="s">
         <v>222</v>
@@ -34219,7 +34216,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ106" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR106" s="2" t="s">
         <v>222</v>
@@ -34530,7 +34527,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ107" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR107" s="2" t="s">
         <v>222</v>
@@ -34841,7 +34838,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ108" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR108" s="2" t="s">
         <v>222</v>
@@ -35152,7 +35149,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ109" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR109" s="2" t="s">
         <v>222</v>
@@ -35463,7 +35460,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ110" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR110" s="2" t="s">
         <v>222</v>
@@ -35774,7 +35771,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ111" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR111" s="2" t="s">
         <v>222</v>
@@ -36085,7 +36082,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ112" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR112" s="2" t="s">
         <v>222</v>
@@ -36396,7 +36393,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ113" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR113" s="2" t="s">
         <v>222</v>
@@ -36707,7 +36704,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ114" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR114" s="2" t="s">
         <v>222</v>
@@ -37018,7 +37015,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ115" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR115" s="2" t="s">
         <v>222</v>
@@ -37329,7 +37326,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ116" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR116" s="2" t="s">
         <v>222</v>
@@ -37640,7 +37637,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ117" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR117" s="2" t="s">
         <v>222</v>
@@ -37951,7 +37948,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ118" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR118" s="2" t="s">
         <v>222</v>
@@ -38262,7 +38259,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ119" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR119" s="2" t="s">
         <v>222</v>
@@ -38573,7 +38570,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ120" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR120" s="2" t="s">
         <v>222</v>
@@ -38884,7 +38881,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ121" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR121" s="2" t="s">
         <v>222</v>
@@ -39195,7 +39192,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ122" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR122" s="2" t="s">
         <v>222</v>
@@ -39506,7 +39503,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ123" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR123" s="2" t="s">
         <v>222</v>
@@ -39817,7 +39814,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ124" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR124" s="2" t="s">
         <v>222</v>
@@ -40128,7 +40125,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ125" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR125" s="2" t="s">
         <v>222</v>
@@ -40439,7 +40436,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ126" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR126" s="2" t="s">
         <v>222</v>
@@ -40750,7 +40747,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ127" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR127" s="2" t="s">
         <v>222</v>
@@ -41061,7 +41058,7 @@
         <v>2015020</v>
       </c>
       <c r="CQ128" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CR128" s="10" t="s">
         <v>222</v>
@@ -42280,296 +42277,294 @@
       <c r="A133" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="K133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="L133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="M133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="N133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="O133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="P133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="R133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="S133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="T133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="U133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="V133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="W133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="X133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AB133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AD133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AE133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AF133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AH133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AJ133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AK133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AL133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AM133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AN133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AO133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AP133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AQ133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AR133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AS133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AU133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AV133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AW133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AX133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AY133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AZ133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BA133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BB133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BC133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BD133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BE133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BF133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BG133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BH133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BI133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BJ133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BK133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BL133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BM133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BN133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BO133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BP133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BQ133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BR133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BS133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BT133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BU133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BV133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BW133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BX133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BY133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BZ133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="CA133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="CB133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="CC133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="CD133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="CE133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="CF133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="CG133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="CH133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="CI133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="CJ133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="CK133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="CL133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="CM133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="CN133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="CO133" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="CP133" s="15"/>
+      <c r="B133" s="3">
+        <v>1.52</v>
+      </c>
+      <c r="C133" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1.89</v>
+      </c>
+      <c r="F133" s="3">
+        <v>3.47</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="H133" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="I133" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="J133" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="K133" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="L133" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M133" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="N133" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="O133" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P133" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="Q133" s="3">
+        <v>1.61</v>
+      </c>
+      <c r="R133" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="S133" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="T133" s="3">
+        <v>1.44</v>
+      </c>
+      <c r="U133" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="V133" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="W133" s="3">
+        <v>1.31</v>
+      </c>
+      <c r="X133" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="Y133" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="Z133" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="AA133" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="AB133" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AC133" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="AD133" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="AE133" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AF133" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="AG133" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="AH133" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AI133" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="AJ133" s="3">
+        <v>1.66</v>
+      </c>
+      <c r="AK133" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="AL133" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="AM133" s="3">
+        <v>1.24</v>
+      </c>
+      <c r="AN133" s="3">
+        <v>1.62</v>
+      </c>
+      <c r="AO133" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="AP133" s="3">
+        <v>1.46</v>
+      </c>
+      <c r="AQ133" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="AR133" s="3">
+        <v>1.71</v>
+      </c>
+      <c r="AS133" s="3">
+        <v>1.18</v>
+      </c>
+      <c r="AT133" s="3">
+        <v>1.44</v>
+      </c>
+      <c r="AU133" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="AV133" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="AW133" s="3">
+        <v>2.54</v>
+      </c>
+      <c r="AX133" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AY133" s="3">
+        <v>1.74</v>
+      </c>
+      <c r="AZ133" s="3">
+        <v>2.33</v>
+      </c>
+      <c r="BA133" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="BB133" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="BC133" s="3">
+        <v>1.81</v>
+      </c>
+      <c r="BD133" s="3">
+        <v>1.97</v>
+      </c>
+      <c r="BE133" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="BF133" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="BG133" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="BH133" s="3">
+        <v>1.33</v>
+      </c>
+      <c r="BI133" s="3">
+        <v>1.41</v>
+      </c>
+      <c r="BJ133" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="BK133" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="BL133" s="3">
+        <v>1.89</v>
+      </c>
+      <c r="BM133" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="BN133" s="3">
+        <v>3.57</v>
+      </c>
+      <c r="BO133" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="BP133" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="BQ133" s="3">
+        <v>1.96</v>
+      </c>
+      <c r="BR133" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BS133" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="BT133" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="BU133" s="3">
+        <v>1.66</v>
+      </c>
+      <c r="BV133" s="3">
+        <v>2.02</v>
+      </c>
+      <c r="BW133" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="BX133" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="BY133" s="3">
+        <v>1.67</v>
+      </c>
+      <c r="BZ133" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="CA133" s="3">
+        <v>1.59</v>
+      </c>
+      <c r="CB133" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="CC133" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="CD133" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="CE133" s="3">
+        <v>2.91</v>
+      </c>
+      <c r="CF133" s="3">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="CG133" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="CH133" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="CI133" s="3">
+        <v>1.89</v>
+      </c>
+      <c r="CJ133" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="CK133" s="3">
+        <v>1.49</v>
+      </c>
+      <c r="CL133" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="CM133" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="CN133" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="CO133" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="CP133" s="3"/>
       <c r="CQ133" s="3"/>
       <c r="CR133" s="3"/>
       <c r="CS133" s="3"/>
       <c r="CT133" s="3"/>
-      <c r="CU133" s="3"/>
-      <c r="CV133" s="3"/>
+      <c r="CU133" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="CV133" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="CW133" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="CX133" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="CY133" s="3" t="s">
         <v>137</v>
       </c>
     </row>
